--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="432">
   <si>
     <t>type</t>
   </si>
@@ -2045,7 +2045,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2854,7 +2854,9 @@
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -20708,7 +20710,7 @@
       </c>
       <c r="C2" s="13">
         <f ca="1">NOW()</f>
-        <v>44826.661960532409</v>
+        <v>44826.66425347222</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>429</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -169,9 +169,6 @@
     <t>Method to select date of birth</t>
   </si>
   <si>
-    <t>../ephemeral_dob/dob_method</t>
-  </si>
-  <si>
     <t>person_age_in_years</t>
   </si>
   <si>
@@ -1336,6 +1333,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>../person/dob_method</t>
   </si>
 </sst>
 </file>
@@ -2042,10 +2042,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2611,7 +2611,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>47</v>
+        <v>431</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -2637,13 +2637,13 @@
         <v>40</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -2654,7 +2654,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -2680,13 +2680,13 @@
         <v>40</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -2697,7 +2697,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -2723,7 +2723,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>25</v>
@@ -2740,7 +2740,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -2766,7 +2766,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>25</v>
@@ -2783,7 +2783,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -2809,7 +2809,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>25</v>
@@ -2826,7 +2826,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -2852,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>25</v>
@@ -2888,16 +2888,16 @@
     </row>
     <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>33</v>
@@ -2938,7 +2938,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>25</v>
@@ -2955,7 +2955,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -2981,7 +2981,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>25</v>
@@ -2998,7 +2998,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -3021,22 +3021,22 @@
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -3064,16 +3064,16 @@
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>33</v>
@@ -3085,7 +3085,7 @@
         <v>35</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -3116,7 +3116,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>25</v>
@@ -3133,7 +3133,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3156,13 +3156,13 @@
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>43</v>
@@ -3177,17 +3177,17 @@
         <v>35</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="L26" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -3214,7 +3214,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>25</v>
@@ -3231,7 +3231,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -3254,22 +3254,22 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>33</v>
@@ -3318,25 +3318,25 @@
         <v>35</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="L29" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
@@ -3356,42 +3356,42 @@
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="L30" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -3414,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>25</v>
@@ -3431,7 +3431,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N31" s="21"/>
       <c r="O31" s="19"/>
@@ -3457,7 +3457,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>25</v>
@@ -3474,7 +3474,7 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -3500,7 +3500,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>25</v>
@@ -3517,7 +3517,7 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -3543,7 +3543,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>25</v>
@@ -3560,7 +3560,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -3583,22 +3583,22 @@
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
@@ -3629,13 +3629,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="D36" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -3646,7 +3646,7 @@
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
@@ -3672,13 +3672,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -3689,7 +3689,7 @@
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
@@ -3715,13 +3715,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="D38" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -3732,7 +3732,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -3758,13 +3758,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="D39" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -3775,7 +3775,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
@@ -3801,10 +3801,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>43</v>
@@ -3818,7 +3818,7 @@
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
@@ -3844,7 +3844,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>25</v>
@@ -3861,7 +3861,7 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>25</v>
@@ -3904,7 +3904,7 @@
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
@@ -3962,44 +3962,44 @@
     </row>
     <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="E44" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="J44" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="K44" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="L44" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="P44" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
@@ -4019,44 +4019,44 @@
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="E45" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="J45" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="K45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="L45" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="P45" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="P45" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
@@ -4079,7 +4079,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>25</v>
@@ -4096,7 +4096,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -4122,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>25</v>
@@ -4139,7 +4139,7 @@
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
@@ -4162,16 +4162,16 @@
     </row>
     <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>33</v>
@@ -4185,23 +4185,23 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K48" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="L48" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="L48" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O48" s="19" t="s">
+      <c r="P48" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="P48" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
@@ -4221,22 +4221,22 @@
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D49" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -4264,24 +4264,24 @@
     </row>
     <row r="50" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="E50" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
@@ -4312,7 +4312,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>25</v>
@@ -4329,7 +4329,7 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
@@ -4352,16 +4352,16 @@
     </row>
     <row r="52" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="D52" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>33</v>
@@ -4373,7 +4373,7 @@
         <v>35</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -4382,10 +4382,10 @@
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="P52" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="P52" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>33</v>
@@ -4426,7 +4426,7 @@
         <v>35</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
@@ -4435,10 +4435,10 @@
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
       <c r="O53" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P53" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -4458,24 +4458,24 @@
     </row>
     <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="E54" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
@@ -4484,10 +4484,10 @@
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="P54" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="P54" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
@@ -4507,16 +4507,16 @@
     </row>
     <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>33</v>
@@ -4528,7 +4528,7 @@
         <v>35</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -4556,16 +4556,16 @@
     </row>
     <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>33</v>
@@ -4577,7 +4577,7 @@
         <v>35</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
@@ -4605,16 +4605,16 @@
     </row>
     <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>33</v>
@@ -4626,7 +4626,7 @@
         <v>35</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
@@ -4654,16 +4654,16 @@
     </row>
     <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>33</v>
@@ -4675,7 +4675,7 @@
         <v>35</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
@@ -4703,16 +4703,16 @@
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>33</v>
@@ -4724,7 +4724,7 @@
         <v>35</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>33</v>
@@ -4773,25 +4773,25 @@
         <v>35</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K60" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="L60" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
       <c r="O60" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P60" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -4811,16 +4811,16 @@
     </row>
     <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="D61" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>33</v>
@@ -4832,25 +4832,25 @@
         <v>35</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K61" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="K61" s="19" t="s">
+      <c r="L61" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
       <c r="O61" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P61" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -4870,24 +4870,24 @@
     </row>
     <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="D62" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="E62" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
@@ -4915,16 +4915,16 @@
     </row>
     <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>33</v>
@@ -4936,7 +4936,7 @@
         <v>35</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>235</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>33</v>
@@ -4985,7 +4985,7 @@
         <v>35</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
@@ -5013,16 +5013,16 @@
     </row>
     <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>33</v>
@@ -5034,7 +5034,7 @@
         <v>35</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
@@ -5062,16 +5062,16 @@
     </row>
     <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>33</v>
@@ -5083,7 +5083,7 @@
         <v>35</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
@@ -5111,16 +5111,16 @@
     </row>
     <row r="67" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>33</v>
@@ -5132,25 +5132,25 @@
         <v>35</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I67" s="21"/>
       <c r="J67" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K67" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="K67" s="19" t="s">
+      <c r="L67" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P67" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
@@ -5170,16 +5170,16 @@
     </row>
     <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>33</v>
@@ -5191,25 +5191,25 @@
         <v>35</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="K68" s="19" t="s">
+      <c r="L68" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
       <c r="O68" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P68" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
@@ -5229,24 +5229,24 @@
     </row>
     <row r="69" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="E69" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="70" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="D70" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>33</v>
@@ -5295,7 +5295,7 @@
         <v>35</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
@@ -5323,16 +5323,16 @@
     </row>
     <row r="71" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B71" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="D71" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>33</v>
@@ -5344,7 +5344,7 @@
         <v>35</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
@@ -5372,16 +5372,16 @@
     </row>
     <row r="72" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>33</v>
@@ -5393,7 +5393,7 @@
         <v>35</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
@@ -5421,16 +5421,16 @@
     </row>
     <row r="73" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>33</v>
@@ -5442,7 +5442,7 @@
         <v>35</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
@@ -5470,16 +5470,16 @@
     </row>
     <row r="74" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>33</v>
@@ -5491,25 +5491,25 @@
         <v>35</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K74" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="K74" s="19" t="s">
+      <c r="L74" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="L74" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="21"/>
       <c r="O74" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P74" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P74" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
@@ -5529,16 +5529,16 @@
     </row>
     <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>33</v>
@@ -5550,25 +5550,25 @@
         <v>35</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="K75" s="19" t="s">
+      <c r="L75" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
       <c r="O75" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P75" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P75" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -5588,24 +5588,24 @@
     </row>
     <row r="76" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="D76" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>262</v>
-      </c>
       <c r="E76" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
@@ -5636,7 +5636,7 @@
         <v>40</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>25</v>
@@ -5653,7 +5653,7 @@
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
@@ -5679,7 +5679,7 @@
         <v>40</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>25</v>
@@ -5696,7 +5696,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
       <c r="M78" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
@@ -5722,7 +5722,7 @@
         <v>40</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>25</v>
@@ -5739,7 +5739,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
@@ -5762,22 +5762,22 @@
     </row>
     <row r="80" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="D80" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>272</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
@@ -5805,22 +5805,22 @@
     </row>
     <row r="81" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="D81" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
@@ -5848,16 +5848,16 @@
     </row>
     <row r="82" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>33</v>
@@ -5869,17 +5869,17 @@
         <v>35</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I82" s="19"/>
       <c r="J82" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="K82" s="19" t="s">
+      <c r="L82" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="M82" s="19"/>
       <c r="N82" s="19"/>
@@ -5903,34 +5903,34 @@
     </row>
     <row r="83" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>286</v>
-      </c>
       <c r="E83" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="K83" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K83" s="19" t="s">
+      <c r="L83" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
@@ -5954,16 +5954,16 @@
     </row>
     <row r="84" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="D84" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>33</v>
@@ -5975,17 +5975,17 @@
         <v>35</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="K84" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K84" s="19" t="s">
+      <c r="L84" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
@@ -6012,20 +6012,20 @@
         <v>21</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="D85" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
@@ -6055,13 +6055,13 @@
         <v>40</v>
       </c>
       <c r="B86" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>299</v>
-      </c>
       <c r="D86" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -6072,7 +6072,7 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N86" s="19"/>
       <c r="O86" s="19"/>
@@ -6098,7 +6098,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>25</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="88" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>25</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="89" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>25</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="90" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>25</v>
@@ -6260,7 +6260,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>25</v>
@@ -6277,7 +6277,7 @@
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
       <c r="M91" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N91" s="19"/>
       <c r="O91" s="19"/>
@@ -6303,7 +6303,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>25</v>
@@ -6320,7 +6320,7 @@
       <c r="K92" s="19"/>
       <c r="L92" s="19"/>
       <c r="M92" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N92" s="19"/>
       <c r="O92" s="19"/>
@@ -6346,7 +6346,7 @@
         <v>40</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>25</v>
@@ -6363,7 +6363,7 @@
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
       <c r="M93" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
@@ -16742,7 +16742,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -16754,33 +16754,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -16790,16 +16790,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -16820,16 +16820,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -16839,16 +16839,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -16869,16 +16869,16 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>329</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -16890,16 +16890,16 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -16913,16 +16913,16 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>333</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
@@ -16940,16 +16940,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -16961,16 +16961,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -16982,16 +16982,16 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -17009,16 +17009,16 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
@@ -17047,16 +17047,16 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -17066,16 +17066,16 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -17085,16 +17085,16 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -17104,16 +17104,16 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -17123,16 +17123,16 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>358</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -17142,16 +17142,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -17161,16 +17161,16 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -17191,16 +17191,16 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -17210,16 +17210,16 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -17240,19 +17240,19 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>372</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -17261,19 +17261,19 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>376</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -17293,16 +17293,16 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -17312,16 +17312,16 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>380</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -17331,16 +17331,16 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>382</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -17350,16 +17350,16 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -17380,16 +17380,16 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -17399,16 +17399,16 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -17418,16 +17418,16 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -17448,16 +17448,16 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>397</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -17467,16 +17467,16 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>400</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -17486,16 +17486,16 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -17505,16 +17505,16 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -17535,16 +17535,16 @@
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>406</v>
-      </c>
       <c r="C44" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -17554,16 +17554,16 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -17573,16 +17573,16 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -17592,16 +17592,16 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -17611,16 +17611,16 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -17630,16 +17630,16 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -17649,16 +17649,16 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -17668,16 +17668,16 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -17687,16 +17687,16 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -17706,16 +17706,16 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -17725,16 +17725,16 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -17744,16 +17744,16 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -17763,16 +17763,16 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -17782,16 +17782,16 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -20680,46 +20680,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="C2" s="13">
         <f ca="1">NOW()</f>
-        <v>44826.66425347222</v>
+        <v>44837.648072916665</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
